--- a/학습자료/단답형/객관식_영어_복습_전치사 구분.xlsx
+++ b/학습자료/단답형/객관식_영어_복습_전치사 구분.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,284 +449,284 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>be addicted [   ]  : ~에 중독되다
-1. of / that
-2. from
-3. to</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>3, to</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>be acquainted [   ] : ~와 안면이 있다
-1. of / that
-2. with
-3. as</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2, with</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>be covered [   ]  : ~로 뒤덮이다
-1. to
-2. on
-3. with</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>3, with</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>be crowded [   ]  : ~로 붐비다
-1. from
-2. with
-3. for</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2, with</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>be married [   ]  : ~와 결혼하다
-1. as
-2. to
-3. in</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2, to</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>be filled [   ]  : ~로 가득 차다
-1. from
-2. with
-3. to</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2, with</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>be opposed [   ]  : ~에 반대하다
-1. on
-2. of / that
-3. to</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3, to</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>be devoted [   ]  : ~에 헌신하다
-1. of / that
-2. on
-3. to</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>3, to</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>be committed [   ]  : ~에 전념하다
-1. for
-2. to
-3. in</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2, to</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>be absorbed [   ]  : ~에 몰두하다
-1. in
-2. from
-3. on</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>1, in</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>be concerned [   ]  : ~을 걱정하다
-1. as
-2. about
-3. on</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2, about</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>be convinced [   ]  : ~을 확신하다
-1. to
-2. for
-3. of / that</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>3, of / that</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>be divorced [   ]  : ~와 이혼하다
-1. with
-2. for
-3. from</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>3, from</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>be exposed [   ]  : ~에 노출되다
-1. to
-2. of / that
-3. from</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1, to</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>be engaged [   ] : ~와 약혼하다, ~에 종사하다
-1. about
-2. on
-3. in</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>3, in</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>be based [   ] : ~에 기초를 두다
-1. from
-2. of / that
-3. on</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>3, on</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>be known [   ] : ~에게 알려지다 (대상)
-1. with
-2. about
-3. to</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>3, to</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>be known [   ] : ~로서 알려지다 (별명, 명칭)
-1. in
-2. as
-3. for</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>2, as</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>be known [   ] : ~로 알려지다 (명성)
 1. with
 2. to
 3. for</t>
         </is>
       </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2, to</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>be acquainted [   ] : ~와 안면이 있다
+1. with
+2. from
+3. out</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1, with</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>be covered [   ]  : ~로 뒤덮이다
+1. out of
+2. with
+3. for</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2, with</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>be crowded [   ]  : ~로 붐비다
+1. up with
+2. with
+3. on</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2, with</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>be married [   ]  : ~와 결혼하다
+1. on
+2. up with
+3. to</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3, to</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>be filled [   ]  : ~로 가득 차다
+1. with
+2. about
+3. on</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1, with</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>be opposed [   ]  : ~에 반대하다
+1. in
+2. to
+3. of / that</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2, to</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>be devoted [   ]  : ~에 헌신하다
+1. of / that
+2. to
+3. away</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2, to</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>be committed [   ]  : ~에 전념하다
+1. of
+2. in
+3. to</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>3, to</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>be absorbed [   ]  : ~에 몰두하다
+1. of / that
+2. in
+3. up with</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2, in</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>be concerned [   ]  : ~을 걱정하다
+1. up with
+2. out of
+3. about</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3, about</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>be convinced [   ]  : ~을 확신하다
+1. of / that
+2. from
+3. as</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1, of / that</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>be divorced [   ]  : ~와 이혼하다
+1. from
+2. in 
+3. on</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1, from</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>be exposed [   ]  : ~에 노출되다
+1. against
+2. to
+3. for</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2, to</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>be engaged [   ] : ~와 약혼하다, ~에 종사하다
+1. as
+2. in
+3. for</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2, in</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">be based [   ] : ~에 기초를 두다
+1. on
+2. for
+3. in </t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1, on</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>be known [   ] : ~에게 알려지다 (대상)
+1. to
+2. of / that
+3. up with</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1, to</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">be known [   ] : ~로서 알려지다 (별명, 명칭)
+1. as
+2. off
+3. in </t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1, as</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>be known [   ] : ~로 알려지다 (명성)
+1. for
+2. to
+3. of</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3, for</t>
+          <t>1, for</t>
         </is>
       </c>
     </row>
@@ -734,14 +734,209 @@
       <c r="A21" t="inlineStr">
         <is>
           <t>to be frank [   ] you : 솔직히 말하면
+1. with
+2. for
+3. about</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1, with</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>be susceptible [   ] : ~에 걸리기 쉽다, ~의 영향을 받기 쉽다
+1. out
+2. to
+3. of / that</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2, to</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>accuse A [   ] B : A를 B로 기소[고소]하다
+1. about
+2. to
+3. of</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3, of</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>attribute A [   ] B : A를 B의 탓으로 돌리다
+1. up with
+2. of
+3. to</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3, to</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>see [   ] : 배웅하다, 쫓아내다, 이기다
+1. out of
+2. over
+3. off</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>3, off</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>rule [   ] : 배제하다
+1. in 
+2. for
+3. out</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>3, out</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>be sentenced [   ] : ~의 형을 받다
+1. to
+2. over
+3. off</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1, to</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>resort [   ] : ~에 기대다, 의지하다
+1. against
+2. away
+3. to</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>3, to</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">make [   ] : ~와 화해하다
+1. up with
+2. on
+3. in </t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1, up with</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>make [   ] : 도망가다
+1. away
+2. in 
+3. of / that</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1, away</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>make [   ] : 양도하다, 고치다
+1. out of
+2. off
+3. over</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>3, over</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>make [   ] : ~에게 불리하게 작용하다
+1. as
+2. against
+3. for</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2, against</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>increase [   ]: ~에 있어서 증가하다
+1. about
+2. in 
+3. against</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2, in </t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">talk A [   ] B : A가 B 못하도록 설득하다
 1. of / that
-2. about
-3. with</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>3, with</t>
+2. out of
+3. in </t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>2, out of</t>
         </is>
       </c>
     </row>
